--- a/coordinates_sample/233琅琊郡/233琅琊郡.xlsx
+++ b/coordinates_sample/233琅琊郡/233琅琊郡.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="29005"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10210"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brantiusxiong/GitHub/后汉书-郡国志/coordinates_sample/233/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brantiusxiong/GitHub/汉书-地理志/coordinates_sample/233琅琊郡/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A78CFD0A-4722-984D-A923-4B1C02D09325}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="460" windowWidth="25360" windowHeight="12660" tabRatio="500" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="460" windowWidth="25360" windowHeight="12660" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="233(CHGIS)" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
     <sheet name="233(ID)" sheetId="6" r:id="rId5"/>
     <sheet name="233(SKDLJG)" sheetId="2" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="150001"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -577,7 +578,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -660,6 +661,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -927,7 +931,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
@@ -1633,11 +1637,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -2503,7 +2507,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2643,7 +2647,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2856,10 +2860,10 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:D53"/>
     </sheetView>
   </sheetViews>
@@ -3600,7 +3604,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
